--- a/요구사항 기술서.xlsx
+++ b/요구사항 기술서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\강의 자료(재민)\projectRefFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\androidJM\Desktop\AWS Fullstack Training\projectRefFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107860FA-1F4C-4E14-A474-64AF4DB60F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>구분</t>
   </si>
@@ -503,14 +504,18 @@
   </si>
   <si>
     <t>앱의 목적, 사용법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -676,13 +681,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF323232"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF323232"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF323232"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF323232"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF323232"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF323232"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF323232"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +745,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -707,34 +778,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,25 +1087,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="6" max="6" width="44.3984375" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="24.375" customWidth="1"/>
+    <col min="12" max="12" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,11 +1125,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1068,11 +1142,12 @@
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="9"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1080,24 +1155,28 @@
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" thickBot="1">
-      <c r="B5" s="15"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B6" s="15"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1110,11 +1189,14 @@
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1126,11 +1208,12 @@
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="29.25" thickBot="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1140,52 +1223,58 @@
       <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" thickBot="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" thickBot="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" ht="29.25" thickBot="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B12" s="15"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1198,76 +1287,84 @@
       <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="9" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12" t="s">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="15"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1280,11 +1377,12 @@
       <c r="F18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1294,24 +1392,28 @@
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="7"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="1" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1320,14 +1422,18 @@
       <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C17"/>

--- a/요구사항 기술서.xlsx
+++ b/요구사항 기술서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\androidJM\Desktop\AWS Fullstack Training\projectRefFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107860FA-1F4C-4E14-A474-64AF4DB60F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A80D0-8173-4DEA-BD38-78FD2FC44B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>구분</t>
   </si>
@@ -729,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +769,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -783,30 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1126,13 +1123,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1145,9 +1142,9 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1158,10 +1155,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1175,8 +1170,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1192,11 +1187,11 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1211,9 +1206,9 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1226,9 +1221,9 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1239,11 +1234,11 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1258,9 +1253,9 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1273,8 +1268,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1290,11 +1285,11 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1309,9 +1304,9 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1324,9 +1319,9 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1337,9 +1332,9 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
@@ -1350,9 +1345,9 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
@@ -1363,8 +1358,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1380,9 +1375,9 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1395,9 +1390,9 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
@@ -1410,10 +1405,10 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1430,16 +1425,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항 기술서.xlsx
+++ b/요구사항 기술서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>구분</t>
   </si>
@@ -111,18 +111,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>레시피 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>커뮤니티</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>필터별 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>설정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -190,10 +182,6 @@
   </si>
   <si>
     <t>다양한 통계 및 지표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료별,나라별,채식 등</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -223,10 +211,6 @@
   </si>
   <si>
     <t>재료 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료 관리를 위한 정보 제공</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -413,10 +397,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>앱 개선/건의 사항 리포트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1:1문의</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -498,11 +478,61 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>레시피 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱의 목적, 사용법</t>
+    <t>레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zerowaste  레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 잔반 활용 레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 재료 활용 레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 공유 레시피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터별(나라, 재료 등) 레시피 검색,
+레시피별 부족한 재료 표시(알림)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한/보유재료수량 
+정보기반 레시피 추천</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 목적, 사용법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선/건의 사항 리포트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -676,13 +706,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF323232"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF323232"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF323232"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF323232"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF323232"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +752,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -707,34 +785,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1033,9 +1099,10 @@
     <col min="12" max="12" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1054,11 +1121,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1066,126 +1136,139 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" thickBot="1">
-      <c r="B5" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B6" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="29.25" thickBot="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" thickBot="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" thickBot="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" ht="29.25" thickBot="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B12" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1193,147 +1276,196 @@
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="4" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="10"/>
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="14">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B3:B22"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
